--- a/Tyrimas/basic_mode_tyrimas.xlsx
+++ b/Tyrimas/basic_mode_tyrimas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\workspace\Bakalaurinis_darbas\Tyrimas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F533AA8D-A93B-4AB0-B5D2-8FB14F0395EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAD551-431F-4CB5-A2F8-6A23BEB35E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4BB5E96-30F7-4389-93E5-B246307B3008}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Acc</t>
   </si>
   <si>
-    <t>DMDK priklausomybe nuo loss</t>
+    <t>DMDK reikšmės priklausomybe nuo nuostolių f-jos reikšmės</t>
   </si>
   <si>
-    <t>DMDK priklausomybe nuo acc</t>
+    <t>DMDK reikšmės priklausomybė nuo modelio tikslumo</t>
   </si>
 </sst>
 </file>
@@ -143,10 +143,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -165,7 +165,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DMDK priklausomybe nuo loss</c:v>
+                  <c:v>DMDK reikšmės priklausomybe nuo nuostolių f-jos reikšmės</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -173,7 +173,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -182,6 +184,243 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8327378859441216E-2"/>
+                  <c:y val="2.1739124232818603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-D32C-4290-B664-93AA34BDF63C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0023283137950383E-2"/>
+                  <c:y val="-1.8115936860682202E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D32C-4290-B664-93AA34BDF63C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="6.1953112869528412E-2"/>
+                      <c:h val="2.5308106439545123E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D32C-4290-B664-93AA34BDF63C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4701644849353991E-2"/>
+                  <c:y val="3.260868634922777E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D32C-4290-B664-93AA34BDF63C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4034980147353569E-2"/>
+                  <c:y val="-6.8840560070592249E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-D32C-4290-B664-93AA34BDF63C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10639754912786313"/>
+                  <c:y val="-3.2608686349227901E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D32C-4290-B664-93AA34BDF63C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:name>Tiesinė reikšmės priklausomybė</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$D$17:$D$22</c:f>
@@ -189,22 +428,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>137.32387944229399</c:v>
+                  <c:v>137.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.817555024288</c:v>
+                  <c:v>134.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123.650454088812</c:v>
+                  <c:v>123.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.707742485683</c:v>
+                  <c:v>122.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.510886898031</c:v>
+                  <c:v>105.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.605635879845</c:v>
+                  <c:v>103.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -216,22 +455,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>88.315358024690099</c:v>
+                  <c:v>88.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.267073791347102</c:v>
+                  <c:v>99.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.2152886836015</c:v>
+                  <c:v>88.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.254657210400694</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.398609865469695</c:v>
+                  <c:v>89.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.534248366011695</c:v>
+                  <c:v>92.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,18 +478,71 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3D29-4DA9-9686-3C44943CBB5F}"/>
+              <c16:uniqueId val="{00000006-D32C-4290-B664-93AA34BDF63C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
         <c:smooth val="0"/>
         <c:axId val="508537408"/>
         <c:axId val="508537736"/>
@@ -262,6 +554,84 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nuostoli</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>ų</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" baseline="0"/>
+                  <a:t> f-jos reikšmė</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -327,6 +697,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>DMDK reikšmė</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -370,6 +810,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -421,10 +892,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -439,11 +910,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$14</c:f>
+              <c:f>Sheet1!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DMDK priklausomybe nuo loss</c:v>
+                  <c:v>DMDK reikšmės priklausomybė nuo modelio tikslumo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -451,7 +922,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -460,6 +933,103 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7467877244945985E-2"/>
+                  <c:y val="-6.7001863801819064E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-297D-46AE-86B0-CB502CAB730B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:name>Tiesinė reikšmės priklausomybė</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$D$34:$D$39</c:f>
@@ -467,22 +1037,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64.497041420118293</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.822485207100598</c:v>
+                  <c:v>69.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.414201183431899</c:v>
+                  <c:v>70.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.597633136094601</c:v>
+                  <c:v>71.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.964497041420103</c:v>
+                  <c:v>73.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.147928994082804</c:v>
+                  <c:v>75.150000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,22 +1064,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99.267073791347102</c:v>
+                  <c:v>99.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.315358024690099</c:v>
+                  <c:v>88.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.2152886836015</c:v>
+                  <c:v>88.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.254657210400694</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.398609865469695</c:v>
+                  <c:v>89.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.534248366011695</c:v>
+                  <c:v>92.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,13 +1092,28 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="508537408"/>
         <c:axId val="508537736"/>
@@ -540,6 +1125,76 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>Modelio tikslumas procentais</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -605,6 +1260,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>DMDK reikšmė</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -648,6 +1373,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -693,81 +1449,55 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1845,15 +2575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2182,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DF3538-53DB-436A-8F16-E19607147852}">
   <dimension ref="D5:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,90 +3042,90 @@
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
-        <v>137.32387944229399</v>
+        <v>137.32</v>
       </c>
       <c r="E17" s="2">
-        <v>88.315358024690099</v>
+        <v>88.32</v>
       </c>
       <c r="F17" s="1">
         <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>69.822485207100598</v>
+        <v>69.819999999999993</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
-        <v>134.817555024288</v>
+        <v>134.82</v>
       </c>
       <c r="E18" s="2">
-        <v>99.267073791347102</v>
+        <v>99.27</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
       </c>
       <c r="G18" s="2">
-        <v>64.497041420118293</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
-        <v>123.650454088812</v>
+        <v>123.65</v>
       </c>
       <c r="E19" s="2">
-        <v>88.2152886836015</v>
+        <v>88.22</v>
       </c>
       <c r="F19" s="1">
         <v>50</v>
       </c>
       <c r="G19" s="2">
-        <v>70.414201183431899</v>
+        <v>70.41</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
-        <v>122.707742485683</v>
+        <v>122.71</v>
       </c>
       <c r="E20" s="2">
-        <v>86.254657210400694</v>
+        <v>86.25</v>
       </c>
       <c r="F20" s="1">
         <v>20</v>
       </c>
       <c r="G20" s="2">
-        <v>71.597633136094601</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
-        <v>105.510886898031</v>
+        <v>105.51</v>
       </c>
       <c r="E21" s="2">
-        <v>89.398609865469695</v>
+        <v>89.4</v>
       </c>
       <c r="F21" s="1">
         <v>150</v>
       </c>
       <c r="G21" s="2">
-        <v>73.964497041420103</v>
+        <v>73.959999999999994</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
-        <v>103.605635879845</v>
+        <v>103.61</v>
       </c>
       <c r="E22" s="2">
-        <v>92.534248366011695</v>
+        <v>92.53</v>
       </c>
       <c r="F22" s="1">
         <v>200</v>
       </c>
       <c r="G22" s="2">
-        <v>75.147928994082804</v>
+        <v>75.150000000000006</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2415,10 +3145,10 @@
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
-        <v>64.497041420118293</v>
+        <v>64.5</v>
       </c>
       <c r="E34" s="2">
-        <v>99.267073791347102</v>
+        <v>99.27</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -2429,10 +3159,10 @@
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
-        <v>69.822485207100598</v>
+        <v>69.819999999999993</v>
       </c>
       <c r="E35" s="2">
-        <v>88.315358024690099</v>
+        <v>88.32</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2443,10 +3173,10 @@
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
-        <v>70.414201183431899</v>
+        <v>70.41</v>
       </c>
       <c r="E36" s="2">
-        <v>88.2152886836015</v>
+        <v>88.22</v>
       </c>
       <c r="F36" s="1">
         <v>50</v>
@@ -2457,10 +3187,10 @@
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
-        <v>71.597633136094601</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="E37" s="2">
-        <v>86.254657210400694</v>
+        <v>86.25</v>
       </c>
       <c r="F37" s="1">
         <v>20</v>
@@ -2471,10 +3201,10 @@
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
-        <v>73.964497041420103</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="E38" s="2">
-        <v>89.398609865469695</v>
+        <v>89.4</v>
       </c>
       <c r="F38" s="1">
         <v>150</v>
@@ -2485,10 +3215,10 @@
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
-        <v>75.147928994082804</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="E39" s="2">
-        <v>92.534248366011695</v>
+        <v>92.53</v>
       </c>
       <c r="F39" s="1">
         <v>200</v>
